--- a/data_output/prism_passive/all_passive_out_elong_GMapo_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.52660932663316373</v>
+        <v>-0.5266093275644721</v>
       </c>
       <c r="C2">
-        <v>2.4669093265259789E-2</v>
+        <v>2.4669093328157032E-2</v>
       </c>
       <c r="D2">
-        <v>-2.3053751112126974</v>
+        <v>-2.3053751115381687</v>
       </c>
       <c r="E2">
-        <v>-4.4720382117933184</v>
+        <v>-4.4720382106481509</v>
       </c>
       <c r="F2">
-        <v>-15.78914513005347</v>
+        <v>-15.789145129591972</v>
       </c>
       <c r="G2">
-        <v>12.085588059311277</v>
+        <v>12.085588059180878</v>
       </c>
       <c r="H2">
-        <v>-5.1856679902495131</v>
+        <v>-5.1856680211721908</v>
       </c>
       <c r="I2">
-        <v>8.8870960235308019</v>
+        <v>8.8870960236607743</v>
       </c>
       <c r="J2">
-        <v>4.9370615927505384</v>
+        <v>4.9370615932570701</v>
       </c>
       <c r="K2">
-        <v>-14.42844053015655</v>
+        <v>-14.428440529346261</v>
       </c>
       <c r="L2">
-        <v>5.779383385562582</v>
+        <v>5.7793833833862465</v>
       </c>
       <c r="M2">
-        <v>-1.16062751782232</v>
+        <v>-1.1606275181212879</v>
       </c>
       <c r="N2">
-        <v>6.9771313546027613E-2</v>
+        <v>6.9771312272251862E-2</v>
       </c>
       <c r="O2">
-        <v>14.511895568105061</v>
+        <v>14.51189556838635</v>
       </c>
       <c r="P2">
-        <v>3.4039212046155569</v>
+        <v>3.4039212050747665</v>
       </c>
       <c r="Q2">
-        <v>-3.2686704299180747E-3</v>
+        <v>-3.2686701845818789E-3</v>
       </c>
       <c r="R2">
-        <v>3.5955421917846309</v>
+        <v>3.5955421920947686</v>
       </c>
       <c r="S2">
-        <v>7.34665598503409</v>
+        <v>7.3466559857847642</v>
       </c>
       <c r="T2">
-        <v>-7.9575111444081301</v>
+        <v>-7.9575111436080022</v>
       </c>
       <c r="U2">
-        <v>7.4424542102949971</v>
+        <v>7.4424542109230174</v>
       </c>
       <c r="V2">
-        <v>-8.1993000700932726</v>
+        <v>-8.1993000696974718</v>
       </c>
       <c r="W2">
-        <v>17.754580595006416</v>
+        <v>17.754580595465967</v>
       </c>
       <c r="X2">
-        <v>1.8565107338431233</v>
+        <v>1.8565107333795368</v>
       </c>
       <c r="Y2">
-        <v>-2.6317005154329252</v>
+        <v>-2.6317005116989094</v>
       </c>
       <c r="Z2">
-        <v>-23.332837579564952</v>
+        <v>-23.332837579663433</v>
       </c>
       <c r="AA2">
-        <v>10.767147735518577</v>
+        <v>10.76714773724612</v>
       </c>
       <c r="AB2">
-        <v>-2.3767282801827605E-3</v>
+        <v>-2.376729015594492E-3</v>
       </c>
       <c r="AC2">
-        <v>8.3530356953432943</v>
+        <v>8.3530356955764091</v>
       </c>
       <c r="AD2">
-        <v>-4.7842181624169768</v>
+        <v>-4.7842181623715305</v>
       </c>
       <c r="AE2">
-        <v>-34.323669365544077</v>
+        <v>-34.323669365324847</v>
       </c>
       <c r="AF2">
-        <v>-0.24108489754897278</v>
+        <v>-0.24108489761243845</v>
       </c>
       <c r="AG2">
-        <v>1.3929721612800705</v>
+        <v>1.3929721614076982</v>
       </c>
       <c r="AH2">
-        <v>1.637993536225963</v>
+        <v>1.6379935348876984</v>
       </c>
       <c r="AI2">
-        <v>39.980836676179777</v>
+        <v>39.980836676501553</v>
       </c>
       <c r="AJ2">
-        <v>-0.42347887953407337</v>
+        <v>-0.42347887950886332</v>
       </c>
       <c r="AK2">
-        <v>1.0223630316923504</v>
+        <v>1.0223630314214773</v>
       </c>
       <c r="AL2">
-        <v>-8.5118250993436959</v>
+        <v>-8.5118250987917037</v>
       </c>
       <c r="AM2">
-        <v>2.2567488632120103E-2</v>
+        <v>2.2567488769340116E-2</v>
       </c>
       <c r="AN2">
-        <v>1.2003365047737589</v>
+        <v>1.2003365048474564</v>
       </c>
       <c r="AO2">
-        <v>-3.801088971994119</v>
+        <v>-3.8010889706356181</v>
       </c>
       <c r="AP2">
-        <v>5.7269391054148002</v>
+        <v>5.7269391066090805</v>
       </c>
       <c r="AQ2">
-        <v>1.1588277240665263</v>
+        <v>1.158827724300636</v>
       </c>
       <c r="AR2">
-        <v>3.0522299521961713</v>
+        <v>3.052229952608343</v>
       </c>
       <c r="AS2">
-        <v>1.049434942910267</v>
+        <v>1.0494349431926366</v>
       </c>
       <c r="AT2">
-        <v>-0.87162109662467913</v>
+        <v>-0.87162109614588701</v>
       </c>
       <c r="AU2">
-        <v>2.586662077889514</v>
+        <v>2.5866620776896241</v>
       </c>
       <c r="AV2">
-        <v>4.3290865544918233E-3</v>
+        <v>4.3290857076101474E-3</v>
       </c>
       <c r="AW2">
-        <v>2.3801010183665312</v>
+        <v>2.3801010163383012</v>
       </c>
       <c r="AX2">
-        <v>-4.5124795023526474</v>
+        <v>-4.5124795021928037</v>
       </c>
       <c r="AY2">
-        <v>4.3924303489551875</v>
+        <v>4.3924303490727681</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.5230604094733593</v>
+        <v>4.5230604115548374</v>
       </c>
       <c r="C3">
-        <v>0.13641286636973859</v>
+        <v>0.13641286682045006</v>
       </c>
       <c r="D3">
-        <v>1.3004443280791804</v>
+        <v>1.3004443255663602</v>
       </c>
       <c r="E3">
-        <v>-15.891980495034232</v>
+        <v>-15.891980494290777</v>
       </c>
       <c r="F3">
-        <v>9.0768669638591177</v>
+        <v>9.0768669646266744</v>
       </c>
       <c r="G3">
-        <v>0.66899100731663452</v>
+        <v>0.6689909808838479</v>
       </c>
       <c r="H3">
-        <v>5.1854683152055401</v>
+        <v>5.1854683163488033</v>
       </c>
       <c r="I3">
-        <v>3.0046238737102158</v>
+        <v>3.0046238730824655</v>
       </c>
       <c r="J3">
-        <v>-2.2922756109579723E-2</v>
+        <v>-2.2922756036351188E-2</v>
       </c>
       <c r="K3">
-        <v>29.498017857647469</v>
+        <v>29.498017858167188</v>
       </c>
       <c r="L3">
-        <v>25.091481467641941</v>
+        <v>25.091481464915702</v>
       </c>
       <c r="M3">
-        <v>-1.2424450332299557</v>
+        <v>-1.2427631546824216</v>
       </c>
       <c r="N3">
-        <v>-7.3330655745053264E-2</v>
+        <v>-7.3330655477491291E-2</v>
       </c>
       <c r="O3">
-        <v>5.5380974942292482</v>
+        <v>5.5380974944136767</v>
       </c>
       <c r="P3">
-        <v>-29.631460545385238</v>
+        <v>-29.631460546033537</v>
       </c>
       <c r="Q3">
-        <v>-2.8446107937083696</v>
+        <v>-2.8446107942452272</v>
       </c>
       <c r="R3">
-        <v>12.012788508966224</v>
+        <v>12.012788509011187</v>
       </c>
       <c r="S3">
-        <v>9.1219317896569692</v>
+        <v>9.1219317893732921</v>
       </c>
       <c r="T3">
-        <v>8.75310523238511</v>
+        <v>8.7531052321822642</v>
       </c>
       <c r="U3">
-        <v>-5.6781800429966722</v>
+        <v>-5.6781800430223512</v>
       </c>
       <c r="V3">
-        <v>10.229147292392526</v>
+        <v>10.229147291913193</v>
       </c>
       <c r="W3">
-        <v>6.1097347003897511</v>
+        <v>6.1097346989646297</v>
       </c>
       <c r="X3">
-        <v>14.941539038184345</v>
+        <v>14.941539038500025</v>
       </c>
       <c r="Y3">
-        <v>8.1516204629958793</v>
+        <v>8.1516204629633364</v>
       </c>
       <c r="Z3">
-        <v>-5.5571997255432279</v>
+        <v>-5.5571997257961101</v>
       </c>
       <c r="AA3">
-        <v>4.1650881426395472</v>
+        <v>4.1650881421809345</v>
       </c>
       <c r="AB3">
-        <v>-3.3141824932897634E-2</v>
+        <v>-3.3141824878711645E-2</v>
       </c>
       <c r="AC3">
-        <v>2.1285062515812001</v>
+        <v>2.1285062518281137</v>
       </c>
       <c r="AD3">
-        <v>-12.730481068331272</v>
+        <v>-12.730481067241783</v>
       </c>
       <c r="AE3">
-        <v>-1.6922508184105709</v>
+        <v>-1.6922508177366353</v>
       </c>
       <c r="AF3">
-        <v>2.1648276594128504</v>
+        <v>2.1648276593332696</v>
       </c>
       <c r="AG3">
-        <v>12.124806872348501</v>
+        <v>12.124806872237301</v>
       </c>
       <c r="AH3">
-        <v>10.406796045629733</v>
+        <v>10.406796046250605</v>
       </c>
       <c r="AI3">
-        <v>7.662837360042829E-2</v>
+        <v>7.6628374244080533E-2</v>
       </c>
       <c r="AJ3">
-        <v>0.22871296145443409</v>
+        <v>0.22871296283327069</v>
       </c>
       <c r="AK3">
-        <v>21.733581237870794</v>
+        <v>21.733581232816107</v>
       </c>
       <c r="AL3">
-        <v>1.1096369791664245</v>
+        <v>1.1096369791055452</v>
       </c>
       <c r="AM3">
-        <v>6.2219255529214479E-3</v>
+        <v>6.2219257493154601E-3</v>
       </c>
       <c r="AN3">
-        <v>3.5324199357289672</v>
+        <v>3.5324199355430608</v>
       </c>
       <c r="AO3">
-        <v>22.08849448652694</v>
+        <v>22.088494486972365</v>
       </c>
       <c r="AP3">
-        <v>-7.2436926197642322</v>
+        <v>-7.2436926200162475</v>
       </c>
       <c r="AQ3">
-        <v>1.1206466850972276</v>
+        <v>1.120646685842047</v>
       </c>
       <c r="AR3">
-        <v>-1.7856018453256866</v>
+        <v>-1.7856018449568438</v>
       </c>
       <c r="AS3">
-        <v>3.4757598631873066</v>
+        <v>3.4757598622568935</v>
       </c>
       <c r="AT3">
-        <v>-0.82666734092592264</v>
+        <v>-0.82666734092806848</v>
       </c>
       <c r="AU3">
-        <v>0.14860279094713746</v>
+        <v>0.14860279069972648</v>
       </c>
       <c r="AV3">
-        <v>-0.65917266594622959</v>
+        <v>-0.65917266812279252</v>
       </c>
       <c r="AW3">
-        <v>-1.9744404566963851</v>
+        <v>-1.9744404696923823</v>
       </c>
       <c r="AX3">
-        <v>-34.361886916824517</v>
+        <v>-34.361886917146364</v>
       </c>
       <c r="AY3">
-        <v>-19.339773521154427</v>
+        <v>-19.339773521134532</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,313 +401,307 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>-0.5266093275644721</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.4669093328157032E-2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-2.3053751115381687</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-4.4720382106481509</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-15.789145129591972</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>12.085588059180878</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-5.1856680211721908</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.8870960236607743</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.9370615932570701</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-14.428440529346261</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.7793833833862465</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-1.1606275181212879</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>6.9771312272251862E-2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>14.51189556838635</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.4039212050747665</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-3.2686701845818789E-3</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>3.5955421920947686</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>7.3466559857847642</v>
+        <v>7.3467226457847801</v>
       </c>
       <c r="T2">
-        <v>-7.9575111436080022</v>
+        <v>-7.9574778136079942</v>
       </c>
       <c r="U2">
-        <v>7.4424542109230174</v>
+        <v>7.4424875409230253</v>
       </c>
       <c r="V2">
-        <v>-8.1993000696974718</v>
+        <v>-8.1992667396974923</v>
       </c>
       <c r="W2">
-        <v>17.754580595465967</v>
+        <v>17.754647255465954</v>
       </c>
       <c r="X2">
-        <v>1.8565107333795368</v>
+        <v>1.8564440733795209</v>
       </c>
       <c r="Y2">
-        <v>-2.6317005116989094</v>
+        <v>-2.6317338416989173</v>
       </c>
       <c r="Z2">
-        <v>-23.332837579663433</v>
+        <v>-23.332904239663449</v>
       </c>
       <c r="AA2">
-        <v>10.76714773724612</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>-2.376729015594492E-3</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>8.3530356955764091</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-4.7842181623715305</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-34.323669365324847</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-0.24108489761243845</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.3929721614076982</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.6379935348876984</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>39.980836676501553</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.42347887950886332</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.0223630314214773</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-8.5118250987917037</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.2567488769340116E-2</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.2003365048474564</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-3.8010889706356181</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>5.7269391066090805</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.158827724300636</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>3.052229952608343</v>
       </c>
       <c r="AS2">
-        <v>1.0494349431926366</v>
+        <v>1.0494682731926446</v>
       </c>
       <c r="AT2">
-        <v>-0.87162109614588701</v>
+        <v>-0.87158776614587907</v>
       </c>
       <c r="AU2">
         <v>2.5866620776896241</v>
       </c>
       <c r="AV2">
-        <v>4.3290857076101474E-3</v>
+        <v>4.3624157075896619E-3</v>
       </c>
       <c r="AW2">
-        <v>2.3801010163383012</v>
+        <v>2.3800343563382853</v>
       </c>
       <c r="AX2">
-        <v>-4.5124795021928037</v>
+        <v>-4.5125461621927911</v>
       </c>
       <c r="AY2">
-        <v>4.3924303490727681</v>
+        <v>4.3923970190727744</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>4.5230604115548374</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.13641286682045006</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.3004443255663602</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-15.891980494290777</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>9.0768669646266744</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.6689909808838479</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.1854683163488033</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3.0046238730824655</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-2.2922756036351188E-2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>29.498017858167188</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>25.091481464915702</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-1.2427631546824216</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-7.3330655477491291E-2</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>5.5380974944136767</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-29.631460546033537</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-2.8446107942452272</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>12.012788509011187</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>9.1219317893732921</v>
       </c>
       <c r="T3">
-        <v>8.7531052321822642</v>
+        <v>8.7531385621822722</v>
       </c>
       <c r="U3">
-        <v>-5.6781800430223512</v>
+        <v>-5.6781467130223433</v>
       </c>
       <c r="V3">
-        <v>10.229147291913193</v>
+        <v>10.229147291913165</v>
       </c>
       <c r="W3">
-        <v>6.1097346989646297</v>
+        <v>6.1097346989646439</v>
       </c>
       <c r="X3">
-        <v>14.941539038500025</v>
+        <v>14.941605698500027</v>
       </c>
       <c r="Y3">
-        <v>8.1516204629633364</v>
+        <v>34.181620462963352</v>
       </c>
       <c r="Z3">
-        <v>-5.5571997257961101</v>
+        <v>-0.11386638579611486</v>
       </c>
       <c r="AA3">
-        <v>4.1650881421809345</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-3.3141824878711645E-2</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>2.1285062518281137</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-12.730481067241783</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-1.6922508177366353</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.1648276593332696</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>12.124806872237301</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>10.406796046250605</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>7.6628374244080533E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.22871296283327069</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>21.733581232816107</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.1096369791055452</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>6.2219257493154601E-3</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>3.5324199355430608</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>22.088494486972365</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-7.2436926200162475</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.120646685842047</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>-1.7856018449568438</v>
+        <v>-1.7855351849568706</v>
       </c>
       <c r="AS3">
-        <v>3.4757598622568935</v>
+        <v>3.4757265322568855</v>
       </c>
       <c r="AT3">
-        <v>-0.82666734092806848</v>
+        <v>-0.82663401092806055</v>
       </c>
       <c r="AU3">
         <v>0.14860279069972648</v>
       </c>
       <c r="AV3">
-        <v>-0.65917266812279252</v>
+        <v>-0.65923932812280839</v>
       </c>
       <c r="AW3">
-        <v>-1.9744404696923823</v>
+        <v>-1.9744071396923744</v>
       </c>
       <c r="AX3">
-        <v>-34.361886917146364</v>
+        <v>-30.188620247146332</v>
       </c>
       <c r="AY3">
-        <v>-19.339773521134532</v>
+        <v>23.08019314886549</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.77684024023231757</v>
+        <v>14.511828908386349</v>
       </c>
       <c r="C2">
-        <v>2.7793467198341375</v>
+        <v>2.6473639617721005</v>
       </c>
       <c r="D2">
-        <v>-2.3244056886797893</v>
+        <v>1.1081228576872775</v>
       </c>
       <c r="E2">
-        <v>-12.061668114157015</v>
+        <v>1.1522195782138169</v>
       </c>
       <c r="F2">
         <v>-17.264707755197946</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.0704329511258237</v>
+        <v>5.2032961379966878</v>
       </c>
       <c r="C3">
-        <v>1.3831461963697365</v>
+        <v>11.275118960341871</v>
       </c>
       <c r="D3">
-        <v>1.2741457962141709</v>
+        <v>3.281647899050256</v>
       </c>
       <c r="E3">
-        <v>-15.891980495034204</v>
+        <v>-3.8992220035595437E-2</v>
       </c>
       <c r="F3">
         <v>8.5746831872981772</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.77684024023231757</v>
+        <v>16.823171312272251</v>
       </c>
       <c r="C2">
-        <v>2.7793467198341375</v>
+        <v>14.511828908386349</v>
       </c>
       <c r="D2">
-        <v>-2.3244056886797893</v>
+        <v>13.483211846899906</v>
       </c>
       <c r="E2">
-        <v>-12.061668114157015</v>
+        <v>1.1081228576872775</v>
       </c>
       <c r="F2">
         <v>-17.264707755197946</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.0704329511258237</v>
+        <v>34.135159043676282</v>
       </c>
       <c r="C3">
-        <v>1.3831461963697365</v>
+        <v>5.2032961379966878</v>
       </c>
       <c r="D3">
-        <v>1.2741457962141709</v>
+        <v>3.6095552557492852</v>
       </c>
       <c r="E3">
-        <v>-15.891980495034204</v>
+        <v>3.281647899050256</v>
       </c>
       <c r="F3">
         <v>8.5746831872981772</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>-0.77684023786768819</v>
+      </c>
+      <c r="C2">
+        <v>2.7793467303925468</v>
+      </c>
+      <c r="D2">
+        <v>-2.3244056891629441</v>
+      </c>
+      <c r="E2">
+        <v>-12.06166811179412</v>
+      </c>
+      <c r="F2">
+        <v>-17.264707754772417</v>
+      </c>
+      <c r="G2">
+        <v>11.595151938783516</v>
+      </c>
+      <c r="H2">
+        <v>-5.1857013511721703</v>
+      </c>
+      <c r="I2">
+        <v>8.8870960236607743</v>
+      </c>
+      <c r="J2">
+        <v>4.9370615932570985</v>
+      </c>
+      <c r="K2">
+        <v>6.6148594706537409</v>
+      </c>
+      <c r="L2">
+        <v>5.7794500433862481</v>
+      </c>
+      <c r="M2">
+        <v>-1.8867703440329819</v>
+      </c>
+      <c r="N2">
         <v>16.823171312272251</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>14.511828908386349</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>2.7329938738237729</v>
+      </c>
+      <c r="Q2">
+        <v>-6.3165353301845641</v>
+      </c>
+      <c r="R2">
+        <v>2.6473639617721005</v>
+      </c>
+      <c r="S2">
+        <v>7.3467226457847801</v>
+      </c>
+      <c r="T2">
+        <v>-7.9754472108352275</v>
+      </c>
+      <c r="U2">
+        <v>7.157356839294863</v>
+      </c>
+      <c r="V2">
+        <v>-8.1992667396974923</v>
+      </c>
+      <c r="W2">
+        <v>17.754647255465954</v>
+      </c>
+      <c r="X2">
+        <v>1.0943432938948661</v>
+      </c>
+      <c r="Y2">
+        <v>-2.6873908227090908</v>
+      </c>
+      <c r="Z2">
+        <v>-23.568482869894979</v>
+      </c>
+      <c r="AA2">
+        <v>10.767147737246106</v>
+      </c>
+      <c r="AB2">
+        <v>19.430249011319617</v>
+      </c>
+      <c r="AC2">
+        <v>7.8648405751077064</v>
+      </c>
+      <c r="AD2">
+        <v>2.3842527782774425</v>
+      </c>
+      <c r="AE2">
+        <v>-34.341847158628838</v>
+      </c>
+      <c r="AF2">
+        <v>-0.88069737666802439</v>
+      </c>
+      <c r="AG2">
+        <v>1.3930054914077061</v>
+      </c>
+      <c r="AH2">
+        <v>0.28472433645450224</v>
+      </c>
+      <c r="AI2">
+        <v>39.547329744543617</v>
+      </c>
+      <c r="AJ2">
+        <v>0.87883109870666942</v>
+      </c>
+      <c r="AK2">
+        <v>0.95379561937855328</v>
+      </c>
+      <c r="AL2">
+        <v>-8.5616023921793953</v>
+      </c>
+      <c r="AM2">
         <v>13.483211846899906</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>1.1081228576872775</v>
       </c>
-      <c r="F2">
-        <v>-17.264707755197946</v>
-      </c>
-      <c r="G2">
-        <v>11.59515192949894</v>
-      </c>
-      <c r="H2">
-        <v>-5.1857013202494926</v>
-      </c>
-      <c r="I2">
-        <v>8.8870960235308019</v>
-      </c>
-      <c r="J2">
-        <v>4.9370615927505668</v>
-      </c>
-      <c r="K2">
-        <v>6.6148594698434522</v>
-      </c>
-      <c r="L2">
-        <v>5.7794500455625837</v>
-      </c>
-      <c r="M2">
-        <v>-1.8867703515146559</v>
-      </c>
-      <c r="N2">
-        <v>16.823171313546027</v>
-      </c>
-      <c r="O2">
-        <v>14.511828908105059</v>
-      </c>
-      <c r="P2">
-        <v>2.7329938680869361</v>
-      </c>
-      <c r="Q2">
-        <v>-6.3165353304299003</v>
-      </c>
-      <c r="R2">
-        <v>2.647363953643179</v>
-      </c>
-      <c r="S2">
-        <v>7.3467226450341059</v>
-      </c>
-      <c r="T2">
-        <v>-7.9754472143321493</v>
-      </c>
-      <c r="U2">
-        <v>7.1573568371437659</v>
-      </c>
-      <c r="V2">
-        <v>-8.199266740093293</v>
-      </c>
-      <c r="W2">
-        <v>17.754647255006404</v>
-      </c>
-      <c r="X2">
-        <v>1.0943432890975942</v>
-      </c>
-      <c r="Y2">
-        <v>-2.6873908275571239</v>
-      </c>
-      <c r="Z2">
-        <v>-23.568482870835425</v>
-      </c>
-      <c r="AA2">
-        <v>10.767147735518563</v>
-      </c>
-      <c r="AB2">
-        <v>19.430249011242793</v>
-      </c>
-      <c r="AC2">
-        <v>7.8648405715821639</v>
-      </c>
-      <c r="AD2">
-        <v>2.3842527747432598</v>
-      </c>
-      <c r="AE2">
-        <v>-34.341847160646523</v>
-      </c>
-      <c r="AF2">
-        <v>-0.88069738626822414</v>
-      </c>
-      <c r="AG2">
-        <v>1.3930054912800784</v>
-      </c>
-      <c r="AH2">
-        <v>0.2847243269984574</v>
-      </c>
-      <c r="AI2">
-        <v>39.547329740173737</v>
-      </c>
-      <c r="AJ2">
-        <v>0.87883109261267123</v>
-      </c>
-      <c r="AK2">
-        <v>0.95379561940943347</v>
-      </c>
-      <c r="AL2">
-        <v>-8.5616023924232536</v>
-      </c>
-      <c r="AM2">
-        <v>13.483211850177838</v>
-      </c>
-      <c r="AN2">
-        <v>1.1081228554913878</v>
-      </c>
       <c r="AO2">
-        <v>-4.0496998752719833</v>
+        <v>-4.0496998696569051</v>
       </c>
       <c r="AP2">
-        <v>3.7870018045165068</v>
+        <v>3.7870018380917259</v>
       </c>
       <c r="AQ2">
-        <v>1.1522195780817981</v>
+        <v>1.1522195782138169</v>
       </c>
       <c r="AR2">
-        <v>2.4634271508244296</v>
+        <v>2.4634271612290206</v>
       </c>
       <c r="AS2">
-        <v>1.0494682729102749</v>
+        <v>1.0494682731926446</v>
       </c>
       <c r="AT2">
-        <v>-0.87158776662467119</v>
+        <v>-0.87158776614587907</v>
       </c>
       <c r="AU2">
-        <v>2.290089296737051</v>
+        <v>2.2900893010629488</v>
       </c>
       <c r="AV2">
-        <v>-0.28820478769532087</v>
+        <v>-0.28820478681564055</v>
       </c>
       <c r="AW2">
-        <v>1.4617357985527519</v>
+        <v>1.4617358098362843</v>
       </c>
       <c r="AX2">
-        <v>-4.5634874472818865</v>
+        <v>-4.5634874467057784</v>
       </c>
       <c r="AY2">
-        <v>4.2930444651281334</v>
+        <v>4.2930444657063589</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>4.0704329577027778</v>
+      </c>
+      <c r="C3">
+        <v>1.3831461968204479</v>
+      </c>
+      <c r="D3">
+        <v>1.274145795656338</v>
+      </c>
+      <c r="E3">
+        <v>-15.891980494290749</v>
+      </c>
+      <c r="F3">
+        <v>8.5746831947345754</v>
+      </c>
+      <c r="G3">
+        <v>0.6689909808838479</v>
+      </c>
+      <c r="H3">
+        <v>4.2092322859680422</v>
+      </c>
+      <c r="I3">
+        <v>2.4128633274826541</v>
+      </c>
+      <c r="J3">
+        <v>10.361059102345664</v>
+      </c>
+      <c r="K3">
+        <v>29.37260411063933</v>
+      </c>
+      <c r="L3">
+        <v>25.091448134915694</v>
+      </c>
+      <c r="M3">
+        <v>-2.9222335317175236</v>
+      </c>
+      <c r="N3">
         <v>34.135159043676282</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>5.2032961379966878</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-30.310947011312322</v>
+      </c>
+      <c r="Q3">
+        <v>-2.9244211429521272</v>
+      </c>
+      <c r="R3">
+        <v>11.275118960341871</v>
+      </c>
+      <c r="S3">
+        <v>8.297823488298576</v>
+      </c>
+      <c r="T3">
+        <v>8.7531385621822722</v>
+      </c>
+      <c r="U3">
+        <v>-5.6781467130223433</v>
+      </c>
+      <c r="V3">
+        <v>9.6416418541151074</v>
+      </c>
+      <c r="W3">
+        <v>6.1069152798988569</v>
+      </c>
+      <c r="X3">
+        <v>14.444295072307895</v>
+      </c>
+      <c r="Y3">
+        <v>33.815382025842027</v>
+      </c>
+      <c r="Z3">
+        <v>-0.31842963812756864</v>
+      </c>
+      <c r="AA3">
+        <v>3.5634073792159455</v>
+      </c>
+      <c r="AB3">
+        <v>2.967508794750799</v>
+      </c>
+      <c r="AC3">
+        <v>2.1219961772926013</v>
+      </c>
+      <c r="AD3">
+        <v>-12.730514397241791</v>
+      </c>
+      <c r="AE3">
+        <v>-2.3031974198153478</v>
+      </c>
+      <c r="AF3">
+        <v>2.01598890999216</v>
+      </c>
+      <c r="AG3">
+        <v>11.820094568653872</v>
+      </c>
+      <c r="AH3">
+        <v>10.474255387640142</v>
+      </c>
+      <c r="AI3">
+        <v>1.3176661799198399</v>
+      </c>
+      <c r="AJ3">
+        <v>0.22874629283327863</v>
+      </c>
+      <c r="AK3">
+        <v>21.733581232816135</v>
+      </c>
+      <c r="AL3">
+        <v>0.22576680427704332</v>
+      </c>
+      <c r="AM3">
         <v>3.6095552557492852</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>3.281647899050256</v>
       </c>
-      <c r="F3">
-        <v>8.5746831872981772</v>
-      </c>
-      <c r="G3">
-        <v>0.66899100731663452</v>
-      </c>
-      <c r="H3">
-        <v>4.2092322783607159</v>
-      </c>
-      <c r="I3">
-        <v>2.4128633248867573</v>
-      </c>
-      <c r="J3">
-        <v>10.361059100119476</v>
-      </c>
-      <c r="K3">
-        <v>29.372604108871101</v>
-      </c>
-      <c r="L3">
-        <v>25.091448137641933</v>
-      </c>
-      <c r="M3">
-        <v>-2.9223125088386155</v>
-      </c>
-      <c r="N3">
-        <v>34.135159048002748</v>
-      </c>
-      <c r="O3">
-        <v>5.2032961342709427</v>
-      </c>
-      <c r="P3">
-        <v>-30.310947018474963</v>
-      </c>
-      <c r="Q3">
-        <v>-2.924421143426656</v>
-      </c>
-      <c r="R3">
-        <v>11.27511895425252</v>
-      </c>
-      <c r="S3">
-        <v>8.2978234868759841</v>
-      </c>
-      <c r="T3">
-        <v>8.7531385623851179</v>
-      </c>
-      <c r="U3">
-        <v>-5.6781467129966643</v>
-      </c>
-      <c r="V3">
-        <v>9.641641849299134</v>
-      </c>
-      <c r="W3">
-        <v>6.1069152813043672</v>
-      </c>
-      <c r="X3">
-        <v>14.444295067148587</v>
-      </c>
-      <c r="Y3">
-        <v>33.815382021888851</v>
-      </c>
-      <c r="Z3">
-        <v>-0.31842964131256224</v>
-      </c>
-      <c r="AA3">
-        <v>3.563407370516714</v>
-      </c>
-      <c r="AB3">
-        <v>2.9675087943199401</v>
-      </c>
-      <c r="AC3">
-        <v>2.1219961757453234</v>
-      </c>
-      <c r="AD3">
-        <v>-12.73051439833128</v>
-      </c>
-      <c r="AE3">
-        <v>-2.3031974274624645</v>
-      </c>
-      <c r="AF3">
-        <v>2.015988909716242</v>
-      </c>
-      <c r="AG3">
-        <v>11.820094569790115</v>
-      </c>
-      <c r="AH3">
-        <v>10.474255387032287</v>
-      </c>
-      <c r="AI3">
-        <v>1.31766617678079</v>
-      </c>
-      <c r="AJ3">
-        <v>0.22874629145444203</v>
-      </c>
-      <c r="AK3">
-        <v>21.733581237870823</v>
-      </c>
-      <c r="AL3">
-        <v>0.22576679070854766</v>
-      </c>
-      <c r="AM3">
-        <v>3.6095552555528911</v>
-      </c>
-      <c r="AN3">
-        <v>3.281647897632439</v>
-      </c>
       <c r="AO3">
-        <v>21.906535129312942</v>
+        <v>21.906535131854838</v>
       </c>
       <c r="AP3">
-        <v>-7.2437592797642196</v>
+        <v>-7.2437592800162349</v>
       </c>
       <c r="AQ3">
-        <v>-3.8992225401926817E-2</v>
+        <v>-3.8992220035595437E-2</v>
       </c>
       <c r="AR3">
-        <v>-1.8250136477223577</v>
+        <v>-1.8250136465529323</v>
       </c>
       <c r="AS3">
-        <v>3.4130623375648383</v>
+        <v>3.4130623376796621</v>
       </c>
       <c r="AT3">
-        <v>-2.0702358380324171</v>
+        <v>-2.0702358206211926</v>
       </c>
       <c r="AU3">
-        <v>0.14146676378896927</v>
+        <v>0.14146676364782707</v>
       </c>
       <c r="AV3">
-        <v>-0.65923932594624546</v>
+        <v>-0.65923932812280839</v>
       </c>
       <c r="AW3">
-        <v>-2.1457316651950009</v>
+        <v>-2.1457316615722277</v>
       </c>
       <c r="AX3">
-        <v>-30.803288761949005</v>
+        <v>-30.80328875899967</v>
       </c>
       <c r="AY3">
-        <v>23.072662424208076</v>
+        <v>23.072662424570453</v>
       </c>
     </row>
   </sheetData>
